--- a/Question_Sets/Role-specific skills/Google Ads.xlsx
+++ b/Question_Sets/Role-specific skills/Google Ads.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'What metric would you use to determine how often your ad is shown compared to the number of impressions you are eligible to receive?', 'ques_type': 2, 'options': ['Search impression share', 'Impressions', 'Search top impression share', 'Average position'], 'score': 'Search impression share'}, {'title': 'What can you do with vCPM bidding?', 'ques_type': 2, 'options': ['You bid for your ad based on how often it appears in a viewable position on the Google Display Network.', 'You bid for your ad based on how often it appears on the Google Display Network.', 'You can maximize the number of impressions you can reach daily.', 'You can set the max amount you want to pay for each ad click.'], 'score': 'You bid for your ad based on how often it appears in a viewable position on the Google Display Network.'}, {'title': 'What is the division of credits for Position-based attribution?', 'ques_type': 2, 'options': ['40% to the first click, 40% to the last click, 20% to the clicks in-between', '25% to the first click, 25% to the last click, 50% to the clicks in-between', '25% to the first click, 50% to the last click, 25% to the clicks in-between', '20% to the first click, 40% to the last click, 40% to the clicks in-between'], 'score': '40% to the first click, 40% to the last click, 20% to the clicks in-between'}, {'title': 'What can you do to optimize a search campaign given the following details?Target CPA bidding is activeThe ad is not receiving any impressionsSearch impression share lost (rank) &amp;gt 0', 'ques_type': 2, 'options': ['Increase target CPA', 'Decrease target CPA', 'Increase CPC bids', 'Set your bid adjustments to bid higher during the best hours of the day.'], 'score': 'Increase target CPA'}]</t>
+    <t>questions = [
+    {
+        "title": "What metric would you use to determine how often your ad is shown compared to the number of impressions you are eligible to receive?",
+        "ques_type": 2,
+        "options": [
+            "Search impression share",
+            "Impressions",
+            "Search top impression share",
+            "Average position"
+        ],
+        "score": "Search impression share"
+    },
+    {
+        "title": "What can you do with vCPM bidding?",
+        "ques_type": 2,
+        "options": [
+            "You bid for your ad based on how often it appears in a viewable position on the Google Display Network.",
+            "You bid for your ad based on how often it appears on the Google Display Network.",
+            "You can maximize the number of impressions you can reach daily.",
+            "You can set the max amount you want to pay for each ad click."
+        ],
+        "score": "You bid for your ad based on how often it appears in a viewable position on the Google Display Network."
+    },
+    {
+        "title": "What is the division of credits for Position-based attribution?",
+        "ques_type": 2,
+        "options": [
+            "40% to the first click, 40% to the last click, 20% to the clicks in-between",
+            "25% to the first click, 25% to the last click, 50% to the clicks in-between",
+            "25% to the first click, 50% to the last click, 25% to the clicks in-between",
+            "20% to the first click, 40% to the last click, 40% to the clicks in-between"
+        ],
+        "score": "40% to the first click, 40% to the last click, 20% to the clicks in-between"
+    },
+    {
+        "title": "What can you do to optimize a search campaign given the following details?Target CPA bidding is activeThe ad is not receiving any impressionsSearch impression share lost (rank) &amp;gt 0",
+        "ques_type": 2,
+        "options": [
+            "Increase target CPA",
+            "Decrease target CPA",
+            "Increase CPC bids",
+            "Set your bid adjustments to bid higher during the best hours of the day."
+        ],
+        "score": "Increase target CPA"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
